--- a/RESULTADOS_PAPER/SGAI/modelo/completo.xlsx
+++ b/RESULTADOS_PAPER/SGAI/modelo/completo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chris\UPV\PHD\LOGIFRUIT\RESULTADOS\paper\modelo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chris\UPV\PHD\LOGIFRUIT\RESULTADOS_PAPER\SGAI\modelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FBD226-6294-4A79-B41E-E917E4A6E859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF67E2F-1CBF-4FC9-8833-BEDF28F07FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB677B21-8239-473A-9EB4-A5611EC0C324}"/>
   </bookViews>
@@ -188,8 +188,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -464,8 +465,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -846,8 +848,12 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -990,8 +996,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1350,8 +1357,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1494,8 +1502,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1918,9 +1927,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2001,9 +2015,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2084,9 +2103,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4574,15 +4598,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5024,7 +5048,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K15"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RESULTADOS_PAPER/SGAI/modelo/completo.xlsx
+++ b/RESULTADOS_PAPER/SGAI/modelo/completo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chris\UPV\PHD\LOGIFRUIT\RESULTADOS_PAPER\SGAI\modelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF67E2F-1CBF-4FC9-8833-BEDF28F07FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F38C69-8C63-49F9-897C-9257D2DFC022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB677B21-8239-473A-9EB4-A5611EC0C324}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{AB677B21-8239-473A-9EB4-A5611EC0C324}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -96,6 +96,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,9 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1334,11 +1340,12 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1355,76 +1362,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="lgDash"/>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$10:$A$15</c:f>
@@ -1455,33 +1401,32 @@
             <c:numRef>
               <c:f>Hoja1!$J$10:$J$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2238.5500000000002</c:v>
+                  <c:v>2238.5526315789475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1891.75</c:v>
+                  <c:v>1891.7520661157025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2207.39</c:v>
+                  <c:v>2207.3916666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5575.1</c:v>
+                  <c:v>5575.0956521739126</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5424.84</c:v>
+                  <c:v>5424.8407079646022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6456.47</c:v>
+                  <c:v>6456.4736842105267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-616A-4104-9484-35C4A06F1F53}"/>
+              <c16:uniqueId val="{00000000-DBE8-4E21-A270-B08F89EF7337}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1500,38 +1445,171 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$10:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6712.7009345794395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6712.7009345794395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6712.7009345794395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6712.7009345794395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6712.7009345794395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6712.7009345794395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DBE8-4E21-A270-B08F89EF7337}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1825399151"/>
+        <c:axId val="1736807103"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1825399151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1736807103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1736807103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1539,37 +1617,256 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Units of articles with negative stock </a:t>
+                </a:r>
               </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1825399151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13460044701295384"/>
+          <c:y val="2.7418590276323335E-2"/>
+          <c:w val="0.85280522625793609"/>
+          <c:h val="0.71362132727392702"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stock cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$10:$A$15</c:f>
@@ -1598,53 +1895,220 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$10:$K$15</c:f>
+              <c:f>Hoja1!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.5656206715634839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9205257082896119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7635881427072402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.007382476390347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.570155299055614</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.811320041972721</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36B8-479E-B03A-5D82E58ECF3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transport cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$10:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>51304</c:v>
+                  <c:v>239.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51304</c:v>
+                  <c:v>238.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51304</c:v>
+                  <c:v>240.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51304</c:v>
+                  <c:v>218.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51304</c:v>
+                  <c:v>223.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51304</c:v>
+                  <c:v>217.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-53A5-45C1-ACBA-6CB6B5B29351}"/>
+              <c16:uniqueId val="{00000001-36B8-479E-B03A-5D82E58ECF3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>244.57562067156348</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47052570828961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>248.38358814270725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>260.82738247639031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>268.51015529905561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>263.34132004197272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-36B8-479E-B03A-5D82E58ECF3B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1106963471"/>
-        <c:axId val="1770015151"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="1992255791"/>
+        <c:axId val="1736816255"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="1106963471"/>
+        <c:axId val="1992255791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1672,7 +2136,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1687,7 +2151,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1770015151"/>
+        <c:crossAx val="1736816255"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1695,8 +2159,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1770015151"/>
+        <c:axId val="1736816255"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1715,7 +2180,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Euros for order</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1731,7 +2251,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1746,10 +2266,49 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1106963471"/>
+        <c:crossAx val="1992255791"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1758,37 +2317,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1813,563 +2341,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Cost comparison for each model</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.9247594050743664E-2"/>
-          <c:y val="0.13310360245666017"/>
-          <c:w val="0.89019685039370078"/>
-          <c:h val="0.64872335008054383"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stock cost</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="narVert">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$A$10:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Model 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Model 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Model 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Model 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Model 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Model 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$B$10:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>6.021202731092437</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5426102941176469</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.308308823529412</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41.655614495798318</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.554527310924371</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45.830903361344532</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-908E-4119-932B-25BC7F6329C9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Transport cost</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="dkDnDiag">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$A$10:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Model 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Model 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Model 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Model 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Model 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Model 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$C$10:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>239.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>238.55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>240.62</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>218.82</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>223.94</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>217.53</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-908E-4119-932B-25BC7F6329C9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$D$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total cost</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="wdDnDiag">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$A$10:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Model 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Model 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Model 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Model 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Model 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Model 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$D$10:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>245.03120273109243</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>242.09261029411766</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>247.92830882352942</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>260.47561449579831</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>268.49452731092435</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>263.36090336134453</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-908E-4119-932B-25BC7F6329C9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1293595343"/>
-        <c:axId val="1288916351"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1293595343"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1288916351"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1288916351"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1293595343"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13815157480314957"/>
-          <c:y val="0.82812335958005245"/>
-          <c:w val="0.72091907261592314"/>
-          <c:h val="0.16261738116068825"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="es-ES"/>
     </a:p>
@@ -3575,7 +3547,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3683,11 +3655,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3698,11 +3665,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3734,9 +3696,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4597,16 +4556,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4673,29 +4632,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>411957</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>27385</xdr:rowOff>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1688307</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>113110</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>421821</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E34DDA-3A98-4141-BCBC-C4AD0107491D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C5ADC9-6A4D-4673-B9A8-0505C8CCF8C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4711,23 +4668,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>695324</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>637062</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:rowOff>189511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>299358</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Gráfico 8">
+        <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61CEE8C1-81E7-4DD7-BF43-7F43C8D423FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F16701-C87A-481C-A654-ACFE9921481E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5047,13 +5004,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53340C1-2A2A-451C-9A8E-F153262BB52F}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
@@ -5095,14 +5052,14 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-11464.37</v>
+        <v>10608.073</v>
       </c>
       <c r="C2">
         <v>239.01</v>
       </c>
       <c r="D2">
         <f>ABS(B2/1904)+C2</f>
-        <v>245.03120273109243</v>
+        <v>244.58146691176469</v>
       </c>
       <c r="E2">
         <v>-24794</v>
@@ -5124,15 +5081,15 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>-6745.13</v>
+      <c r="B3" s="3">
+        <v>7472.5219999999999</v>
       </c>
       <c r="C3" s="1">
         <v>238.55</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D7" si="0">ABS(B3/1904)+C3</f>
-        <v>242.09261029411766</v>
+        <v>242.47464390756303</v>
       </c>
       <c r="E3">
         <v>-13770</v>
@@ -5155,14 +5112,14 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-13915.02</v>
+        <v>14797.398999999999</v>
       </c>
       <c r="C4" s="1">
         <v>240.62</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>247.92830882352942</v>
+        <v>248.39174317226892</v>
       </c>
       <c r="E4">
         <v>-16612</v>
@@ -5185,14 +5142,14 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-79312.289999999994</v>
+        <v>80066.070999999996</v>
       </c>
       <c r="C5" s="1">
         <v>218.82</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>260.47561449579831</v>
+        <v>260.87150787815125</v>
       </c>
       <c r="E5">
         <v>-61837</v>
@@ -5215,14 +5172,14 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-84831.82</v>
+        <v>84950.716</v>
       </c>
       <c r="C6" s="1">
         <v>223.94</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>268.49452731092435</v>
+        <v>268.55697268907562</v>
       </c>
       <c r="E6">
         <v>-60797</v>
@@ -5245,14 +5202,14 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-87262.04</v>
+        <v>87316.376000000004</v>
       </c>
       <c r="C7" s="1">
         <v>217.53</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>263.36090336134453</v>
+        <v>263.3894411764706</v>
       </c>
       <c r="E7">
         <v>-63241</v>
@@ -5309,17 +5266,17 @@
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
-        <f>ABS(B2)/1904</f>
-        <v>6.021202731092437</v>
+      <c r="B10" s="4">
+        <f>B2/1906</f>
+        <v>5.5656206715634839</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:H15" si="1">ABS(C2)</f>
         <v>239.01</v>
       </c>
-      <c r="D10">
-        <f>ABS(B2/1904)+C2</f>
-        <v>245.03120273109243</v>
+      <c r="D10" s="4">
+        <f>B10+C10</f>
+        <v>244.57562067156348</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
@@ -5339,12 +5296,13 @@
       <c r="I10">
         <v>107</v>
       </c>
-      <c r="J10">
-        <f>ABS(J2)</f>
-        <v>2238.5500000000002</v>
-      </c>
-      <c r="K10">
-        <v>51304</v>
+      <c r="J10" s="2">
+        <f>F10/H10</f>
+        <v>2238.5526315789475</v>
+      </c>
+      <c r="K10" s="2">
+        <f>G10/I10</f>
+        <v>6712.7009345794395</v>
       </c>
       <c r="L10">
         <f t="shared" ref="L10" si="2">ABS(L2)</f>
@@ -5355,17 +5313,17 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
-        <f t="shared" ref="B11:B15" si="3">ABS(B3)/1904</f>
-        <v>3.5426102941176469</v>
+      <c r="B11" s="4">
+        <f t="shared" ref="B11:B15" si="3">B3/1906</f>
+        <v>3.9205257082896119</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
         <v>238.55</v>
       </c>
-      <c r="D11">
-        <f t="shared" ref="D11:D15" si="4">ABS(B3/1904)+C3</f>
-        <v>242.09261029411766</v>
+      <c r="D11" s="4">
+        <f t="shared" ref="D11:D15" si="4">B11+C11</f>
+        <v>242.47052570828961</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
@@ -5385,15 +5343,16 @@
       <c r="I11">
         <v>107</v>
       </c>
-      <c r="J11">
-        <f t="shared" ref="J11:J15" si="5">ABS(J3)</f>
-        <v>1891.75</v>
-      </c>
-      <c r="K11">
-        <v>51304</v>
+      <c r="J11" s="2">
+        <f t="shared" ref="J11:J15" si="5">F11/H11</f>
+        <v>1891.7520661157025</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" ref="K11:K15" si="6">G11/I11</f>
+        <v>6712.7009345794395</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11" si="6">ABS(L3)</f>
+        <f t="shared" ref="L11" si="7">ABS(L3)</f>
         <v>0.75</v>
       </c>
     </row>
@@ -5401,17 +5360,17 @@
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <f t="shared" si="3"/>
-        <v>7.308308823529412</v>
+        <v>7.7635881427072402</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
         <v>240.62</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <f t="shared" si="4"/>
-        <v>247.92830882352942</v>
+        <v>248.38358814270725</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
@@ -5431,15 +5390,16 @@
       <c r="I12">
         <v>107</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <f t="shared" si="5"/>
-        <v>2207.39</v>
-      </c>
-      <c r="K12">
-        <v>51304</v>
+        <v>2207.3916666666669</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="6"/>
+        <v>6712.7009345794395</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12" si="7">ABS(L4)</f>
+        <f t="shared" ref="L12" si="8">ABS(L4)</f>
         <v>0.7</v>
       </c>
     </row>
@@ -5447,17 +5407,17 @@
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <f t="shared" si="3"/>
-        <v>41.655614495798318</v>
+        <v>42.007382476390347</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
         <v>218.82</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <f t="shared" si="4"/>
-        <v>260.47561449579831</v>
+        <v>260.82738247639031</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
@@ -5477,15 +5437,16 @@
       <c r="I13">
         <v>107</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <f t="shared" si="5"/>
-        <v>5575.1</v>
-      </c>
-      <c r="K13">
-        <v>51304</v>
+        <v>5575.0956521739126</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="6"/>
+        <v>6712.7009345794395</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13" si="8">ABS(L5)</f>
+        <f t="shared" ref="L13" si="9">ABS(L5)</f>
         <v>0.62</v>
       </c>
     </row>
@@ -5493,17 +5454,17 @@
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <f t="shared" si="3"/>
-        <v>44.554527310924371</v>
+        <v>44.570155299055614</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
         <v>223.94</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <f t="shared" si="4"/>
-        <v>268.49452731092435</v>
+        <v>268.51015529905561</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
@@ -5523,15 +5484,16 @@
       <c r="I14">
         <v>107</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <f t="shared" si="5"/>
-        <v>5424.84</v>
-      </c>
-      <c r="K14">
-        <v>51304</v>
+        <v>5424.8407079646022</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="6"/>
+        <v>6712.7009345794395</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14" si="9">ABS(L6)</f>
+        <f t="shared" ref="L14" si="10">ABS(L6)</f>
         <v>0.62</v>
       </c>
     </row>
@@ -5539,17 +5501,17 @@
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <f t="shared" si="3"/>
-        <v>45.830903361344532</v>
+        <v>45.811320041972721</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>217.53</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <f t="shared" si="4"/>
-        <v>263.36090336134453</v>
+        <v>263.34132004197272</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
@@ -5569,15 +5531,16 @@
       <c r="I15">
         <v>107</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <f t="shared" si="5"/>
-        <v>6456.47</v>
-      </c>
-      <c r="K15">
-        <v>51304</v>
+        <v>6456.4736842105267</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="6"/>
+        <v>6712.7009345794395</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15" si="10">ABS(L7)</f>
+        <f t="shared" ref="L15" si="11">ABS(L7)</f>
         <v>0.63</v>
       </c>
     </row>
